--- a/RelatorioConversoesPorAnoEMes.xlsx
+++ b/RelatorioConversoesPorAnoEMes.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Conversões por Ano e Mês" r:id="rId3" sheetId="1"/>
+    <sheet name="Relatório" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/RelatorioConversoesPorAnoEMes.xlsx
+++ b/RelatorioConversoesPorAnoEMes.xlsx
@@ -12,15 +12,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Ano</t>
   </si>
   <si>
-    <t>Mes</t>
+    <t>Mês</t>
   </si>
   <si>
     <t>Total de Conversões</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
 </sst>
 </file>
@@ -73,24 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -120,58 +138,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="2">
-        <v>2023.0</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" t="n" s="2">
-        <v>7.0</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" t="n" s="2">
-        <v>22.0</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="3">
-        <v>2023.0</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" t="n" s="3">
-        <v>8.0</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
-      <c r="C3" t="n" s="3">
-        <v>54.0</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="4">
-        <v>2023.0</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
-      <c r="B4" t="n" s="4">
-        <v>9.0</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
-      <c r="C4" t="n" s="4">
-        <v>61.0</v>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="5">
-        <v>2023.0</v>
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
-      <c r="B5" t="n" s="5">
-        <v>10.0</v>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
-      <c r="C5" t="n" s="5">
-        <v>49.0</v>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="6">
-        <v>2023.0</v>
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
-      <c r="B6" t="n" s="6">
-        <v>11.0</v>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
-      <c r="C6" t="n" s="6">
-        <v>47.0</v>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
